--- a/medicine/Enfance/Bibliothèque_internationale/Bibliothèque_internationale.xlsx
+++ b/medicine/Enfance/Bibliothèque_internationale/Bibliothèque_internationale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_internationale</t>
+          <t>Bibliothèque_internationale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bibliothèque internationale est une collection française de livres pour la jeunesse créée en 1968 par les éditions Fernand Nathan. Elle est dirigée par Isabelle Jan. 
 Le propos de cette collection était de faire connaître des romans de jeunesse du monde entier.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_internationale</t>
+          <t>Bibliothèque_internationale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spécialiste de la littérature pour enfants, Isabelle Jan conçoit la collection en 1967[1]. Elle publie en 1969 Essai sur la littérature enfantine aux Éditions ouvrières[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spécialiste de la littérature pour enfants, Isabelle Jan conçoit la collection en 1967. Elle publie en 1969 Essai sur la littérature enfantine aux Éditions ouvrières.
 La « Bibliothèque internationale » est considérée comme ayant eu en France un impact historique dans le monde éditorial pour la jeunesse :
-« C'est Isabelle Jan qui introduit la vraie novation, celle des écritures, en créant en 1968 la collection « Bibliothèque internationale » chez Nathan. »[3]
-Henriette Bichonnier prend le relais de la direction[1]. Après avoir publié plusieurs classiques contemporains traduits de plusieurs langues, la collection s'arrête en 1993.
+« C'est Isabelle Jan qui introduit la vraie novation, celle des écritures, en créant en 1968 la collection « Bibliothèque internationale » chez Nathan. »
+Henriette Bichonnier prend le relais de la direction. Après avoir publié plusieurs classiques contemporains traduits de plusieurs langues, la collection s'arrête en 1993.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_internationale</t>
+          <t>Bibliothèque_internationale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Titres publiés sous la direction d'Isabelle Jan</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1968
  Eilís Dillon, L'Île des chevaux (The Island of Horses, 1956)   (ISBN 2-09-289634-2)
@@ -618,7 +634,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_internationale</t>
+          <t>Bibliothèque_internationale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -636,7 +652,9 @@
           <t>Titres publiés sous la direction d'Henriette Bichonnier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1990
  Josefine Ottesen, Le Pays interdit (Eventyret om Fjeren og Rosen, 1986)  (ISBN 2-09-240280-3)
